--- a/public/files/import/recurring-bills.xlsx
+++ b/public/files/import/recurring-bills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8987"/>
+    <workbookView windowWidth="28800" windowHeight="13620" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="recurring" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>recurable_type</t>
   </si>
@@ -78,6 +78,12 @@
     <t>amount</t>
   </si>
   <si>
+    <t>discount_type</t>
+  </si>
+  <si>
+    <t>discount_rate</t>
+  </si>
+  <si>
     <t>currency_code</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>draft</t>
   </si>
   <si>
+    <t>percentage</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -153,15 +162,12 @@
     <t>tax</t>
   </si>
   <si>
-    <t>Laptop</t>
+    <t>Monitor</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>Monitor</t>
-  </si>
-  <si>
     <t>tax_rate</t>
   </si>
   <si>
@@ -187,6 +193,12 @@
   </si>
   <si>
     <t>invoices.sub_total</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>invoices.discount</t>
   </si>
   <si>
     <t>invoices.total</t>
@@ -197,11 +209,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -219,6 +231,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,16 +246,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,19 +315,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,95 +373,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -371,31 +383,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,37 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,67 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,25 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +595,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,21 +632,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,219 +660,224 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -1164,21 +1177,21 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="34.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="10.5648148148148" customWidth="1"/>
-    <col min="5" max="5" width="23.4259259259259" customWidth="1"/>
-    <col min="6" max="6" width="8.13888888888889" customWidth="1"/>
-    <col min="7" max="7" width="10.5648148148148" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5625" customWidth="1"/>
+    <col min="5" max="5" width="23.4296875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="11.712962962963" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1249,31 +1262,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.2777777777778" customWidth="1"/>
-    <col min="3" max="3" width="8.13888888888889" customWidth="1"/>
-    <col min="4" max="5" width="12.8518518518519" customWidth="1"/>
-    <col min="6" max="6" width="10.5648148148148" customWidth="1"/>
-    <col min="7" max="10" width="16.4259259259259" customWidth="1"/>
-    <col min="11" max="11" width="29.4166666666667" customWidth="1"/>
-    <col min="12" max="12" width="22.2777777777778" customWidth="1"/>
-    <col min="13" max="13" width="16.4259259259259" customWidth="1"/>
-    <col min="14" max="15" width="18.712962962963" customWidth="1"/>
-    <col min="16" max="16" width="16.4259259259259" customWidth="1"/>
-    <col min="17" max="17" width="19.9907407407407" customWidth="1"/>
-    <col min="18" max="18" width="15.2777777777778" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="2" max="2" width="15.28125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.8515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5625" customWidth="1"/>
+    <col min="7" max="7" width="12.9375" customWidth="1"/>
+    <col min="8" max="8" width="12.4375" customWidth="1"/>
+    <col min="9" max="12" width="16.4296875" customWidth="1"/>
+    <col min="13" max="13" width="29.4140625" customWidth="1"/>
+    <col min="14" max="14" width="22.28125" customWidth="1"/>
+    <col min="15" max="15" width="16.4296875" customWidth="1"/>
+    <col min="16" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.4296875" customWidth="1"/>
+    <col min="19" max="19" width="19.9921875" customWidth="1"/>
+    <col min="20" max="20" width="15.28125" customWidth="1"/>
+    <col min="21" max="21" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1331,13 +1346,19 @@
       <c r="S1" t="s">
         <v>31</v>
       </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>45152</v>
@@ -1346,27 +1367,33 @@
         <v>45152</v>
       </c>
       <c r="F2">
-        <v>12321.22</v>
+        <v>900</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="can@gmail.com" tooltip="mailto:can@gmail.com"/>
+    <hyperlink ref="M2" r:id="rId1" display="can@gmail.com" tooltip="mailto:can@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1377,21 +1404,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="19.9907407407407" customWidth="1"/>
-    <col min="4" max="4" width="11.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="10.5648148148148" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.9921875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5625" customWidth="1"/>
     <col min="6" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="4.57407407407407" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1399,25 +1426,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1425,44 +1452,21 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1230</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>12300</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>21.22</v>
-      </c>
-      <c r="G3">
-        <v>21.22</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -1482,12 +1486,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="10.5648148148148" customWidth="1"/>
-    <col min="4" max="4" width="8.13888888888889" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5625" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1495,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -1520,11 +1524,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="8.13888888888889" customWidth="1"/>
-    <col min="4" max="4" width="19.9907407407407" customWidth="1"/>
+    <col min="2" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.9921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1535,10 +1539,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1546,13 +1550,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1565,19 +1569,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.712962962963" customWidth="1"/>
-    <col min="3" max="3" width="22.2777777777778" customWidth="1"/>
-    <col min="4" max="4" width="10.5648148148148" customWidth="1"/>
-    <col min="5" max="5" width="12.8518518518519" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28125" customWidth="1"/>
+    <col min="4" max="4" width="10.5625" customWidth="1"/>
+    <col min="5" max="5" width="12.8515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1585,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1602,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>12321.22</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1619,16 +1623,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>12321.22</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>900</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/import/recurring-bills.xlsx
+++ b/public/files/import/recurring-bills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13620" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="recurring" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>recurable_type</t>
   </si>
@@ -123,6 +123,18 @@
     <t>notes</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>subheading</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>draft</t>
   </si>
   <si>
@@ -141,6 +153,15 @@
     <t>can@gmail.com</t>
   </si>
   <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>#55588b</t>
+  </si>
+  <si>
     <t>item_name</t>
   </si>
   <si>
@@ -166,6 +187,9 @@
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>tax_name</t>
   </si>
   <si>
     <t>tax_rate</t>
@@ -209,13 +233,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -231,6 +255,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF98C379"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -260,6 +290,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -276,18 +329,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,6 +359,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,73 +403,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,12 +419,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,13 +503,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,145 +545,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +604,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,11 +655,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,181 +704,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,30 +833,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1262,10 +1295,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1288,7 +1321,7 @@
     <col min="21" max="21" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1352,13 +1385,25 @@
       <c r="U1" t="s">
         <v>33</v>
       </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1">
         <v>45152</v>
@@ -1370,25 +1415,34 @@
         <v>900</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1426,25 +1480,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1452,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1480,31 +1534,34 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1539,10 +1596,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1550,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1628,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1589,16 +1646,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1606,10 +1663,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -1623,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1640,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>900</v>
